--- a/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11811</v>
+        <v>11822</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29897</v>
+        <v>30511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07139716955569796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04326386273517079</v>
+        <v>0.04330240134549312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1095083687437994</v>
+        <v>0.1117577270981669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>19200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11615</v>
+        <v>11424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29281</v>
+        <v>31271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07360969128701263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04453104075332419</v>
+        <v>0.04379558225145407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1122587842882749</v>
+        <v>0.1198882418508874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>38692</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27364</v>
+        <v>27005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51828</v>
+        <v>53256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07247820743798636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05125726993252645</v>
+        <v>0.05058616715792091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0970846482710965</v>
+        <v>0.09975799431909343</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>253518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243113</v>
+        <v>242499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>261199</v>
+        <v>261188</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.928602830444302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8904916312562006</v>
+        <v>0.888242272901833</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9567361372648296</v>
+        <v>0.9566975986545069</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -836,19 +836,19 @@
         <v>241638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>231557</v>
+        <v>229567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249223</v>
+        <v>249414</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9263903087129873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8877412157117252</v>
+        <v>0.8801117581491126</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9554689592466759</v>
+        <v>0.9562044177485459</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -857,19 +857,19 @@
         <v>495156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>482020</v>
+        <v>480592</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>506484</v>
+        <v>506843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9275217925620136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9029153517289032</v>
+        <v>0.9002420056809066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9487427300674736</v>
+        <v>0.9494138328420791</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>31675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22318</v>
+        <v>22105</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45473</v>
+        <v>45879</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06423912489177719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04526197827934501</v>
+        <v>0.04483070487371614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09222280387212811</v>
+        <v>0.09304650413008274</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -982,19 +982,19 @@
         <v>31260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22688</v>
+        <v>21766</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43682</v>
+        <v>44283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06203067291328238</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04502061040224967</v>
+        <v>0.04319169176467352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08667916591719747</v>
+        <v>0.08787157603951709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1003,19 +1003,19 @@
         <v>62935</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47571</v>
+        <v>48592</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80576</v>
+        <v>79952</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06312285576560613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04771268201910897</v>
+        <v>0.04873723181134258</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08081622547395341</v>
+        <v>0.0801904715524478</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>461400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>447602</v>
+        <v>447196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470757</v>
+        <v>470970</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9357608751082228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9077771961278719</v>
+        <v>0.9069534958699174</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9547380217206549</v>
+        <v>0.9551692951262839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>468</v>
@@ -1053,19 +1053,19 @@
         <v>472689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>460267</v>
+        <v>459666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>481261</v>
+        <v>482183</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9379693270867177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9133208340828024</v>
+        <v>0.9121284239604829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9549793895977503</v>
+        <v>0.9568083082353265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>904</v>
@@ -1074,19 +1074,19 @@
         <v>934089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>916448</v>
+        <v>917072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>949453</v>
+        <v>948432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9368771442343938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9191837745260466</v>
+        <v>0.9198095284475521</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9522873179808911</v>
+        <v>0.9512627681886573</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8372</v>
+        <v>7553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24140</v>
+        <v>23611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04439833335296941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02625587978983033</v>
+        <v>0.02368778964854473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07571086184997443</v>
+        <v>0.07405254175833685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>6708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14293</v>
+        <v>13398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0200000432157861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008389274413878815</v>
+        <v>0.008391410866108243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04261450473723789</v>
+        <v>0.03994603170292171</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1220,19 +1220,19 @@
         <v>20864</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12227</v>
+        <v>13460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30760</v>
+        <v>31171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03189030070971552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01868781171779925</v>
+        <v>0.02057222446167579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04701524480649167</v>
+        <v>0.04764298795812668</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>304690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294706</v>
+        <v>295235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310474</v>
+        <v>311293</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9556016666470306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9242891381500254</v>
+        <v>0.9259474582416631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9737441202101695</v>
+        <v>0.9763122103514551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>328</v>
@@ -1270,19 +1270,19 @@
         <v>328704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321119</v>
+        <v>322014</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332598</v>
+        <v>332597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9799999567842139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9573854952627621</v>
+        <v>0.9600539682970783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916107255861212</v>
+        <v>0.9916085891338918</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -1291,19 +1291,19 @@
         <v>633394</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623498</v>
+        <v>623087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642031</v>
+        <v>640798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9681096992902845</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9529847551935082</v>
+        <v>0.9523570120418733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813121882822007</v>
+        <v>0.9794277755383241</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>20777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13290</v>
+        <v>13236</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30850</v>
+        <v>29885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05792763162958309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.037053898201915</v>
+        <v>0.03690239570591931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08601332467073147</v>
+        <v>0.08332193568654611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>19790</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12257</v>
+        <v>12152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28965</v>
+        <v>29308</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05327675070657336</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03299757995610086</v>
+        <v>0.03271466491460564</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07797810208974777</v>
+        <v>0.07890162209359866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -1437,19 +1437,19 @@
         <v>40567</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30060</v>
+        <v>30030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53525</v>
+        <v>55007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05556147166118879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04117061304022904</v>
+        <v>0.04112979596537641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07330906327169129</v>
+        <v>0.07533944853226152</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>337894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>327821</v>
+        <v>328786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>345381</v>
+        <v>345435</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9420723683704169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9139866753292684</v>
+        <v>0.9166780643134538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9629461017980848</v>
+        <v>0.9630976042940805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>364</v>
@@ -1487,19 +1487,19 @@
         <v>351666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342491</v>
+        <v>342148</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>359199</v>
+        <v>359304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9467232492934267</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9220218979102522</v>
+        <v>0.9210983779064014</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9670024200438991</v>
+        <v>0.9672853350853944</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>704</v>
@@ -1508,19 +1508,19 @@
         <v>689560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>676602</v>
+        <v>675120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>700067</v>
+        <v>700097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9444385283388113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9266909367283087</v>
+        <v>0.924660551467738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9588293869597709</v>
+        <v>0.9588702040346235</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8349</v>
+        <v>8536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22396</v>
+        <v>22544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0713793855264897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04106592668739967</v>
+        <v>0.04198450318355884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1101574953318888</v>
+        <v>0.1108836020390158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>14739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8478</v>
+        <v>8251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24153</v>
+        <v>23439</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07097605665682205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04082488064080255</v>
+        <v>0.03973087745950298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1163062158290986</v>
+        <v>0.1128669744274043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1654,19 +1654,19 @@
         <v>29251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20650</v>
+        <v>21389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42444</v>
+        <v>41177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0711755816782562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05024677995010973</v>
+        <v>0.05204518448229806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1032764788797132</v>
+        <v>0.1001920554141966</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>188796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180912</v>
+        <v>180764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194959</v>
+        <v>194772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9286206144735103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8898425046681115</v>
+        <v>0.8891163979609842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9589340733126025</v>
+        <v>0.9580154968164387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1704,19 +1704,19 @@
         <v>192929</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183515</v>
+        <v>184229</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199190</v>
+        <v>199417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9290239433431779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8836937841709013</v>
+        <v>0.8871330255725955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9591751193591974</v>
+        <v>0.9602691225404967</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>374</v>
@@ -1725,19 +1725,19 @@
         <v>381725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>368532</v>
+        <v>369799</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>390326</v>
+        <v>389587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9288244183217438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8967235211202871</v>
+        <v>0.8998079445858035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9497532200498903</v>
+        <v>0.9479548155177019</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>16609</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10384</v>
+        <v>9678</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25724</v>
+        <v>25243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06133184980894733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03834264459147232</v>
+        <v>0.03573878592465456</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09499012875612053</v>
+        <v>0.09321234408789326</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1850,19 +1850,19 @@
         <v>15802</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9430</v>
+        <v>8922</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25680</v>
+        <v>25325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0568112884634434</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03390269236248634</v>
+        <v>0.03207711859181329</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09232489537149693</v>
+        <v>0.09105078312000731</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1871,19 +1871,19 @@
         <v>32411</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22792</v>
+        <v>22382</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45111</v>
+        <v>44022</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05904137608026716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04151929464899465</v>
+        <v>0.04077237496202164</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08217693907988391</v>
+        <v>0.08019151756379911</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>254202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245087</v>
+        <v>245568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260427</v>
+        <v>261133</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9386681501910527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9050098712438797</v>
+        <v>0.9067876559121067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9616573554085279</v>
+        <v>0.9642612140753455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -1921,19 +1921,19 @@
         <v>262342</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252464</v>
+        <v>252819</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268714</v>
+        <v>269222</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9431887115365566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9076751046285032</v>
+        <v>0.9089492168799927</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9660973076375137</v>
+        <v>0.9679228814081867</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>504</v>
@@ -1942,19 +1942,19 @@
         <v>516544</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>503844</v>
+        <v>504933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526163</v>
+        <v>526573</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9409586239197328</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9178230609201162</v>
+        <v>0.9198084824362006</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9584807053510054</v>
+        <v>0.9592276250379783</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>47946</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35331</v>
+        <v>36056</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62413</v>
+        <v>61520</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0779580521749003</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05744546266852704</v>
+        <v>0.05862493043684793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1014804333466441</v>
+        <v>0.1000284282962689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -2067,19 +2067,19 @@
         <v>39496</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28483</v>
+        <v>27766</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54943</v>
+        <v>53774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0618847119770285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04462947501919744</v>
+        <v>0.04350500200939894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08608765000187744</v>
+        <v>0.08425613439478573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -2088,19 +2088,19 @@
         <v>87442</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69267</v>
+        <v>71490</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107121</v>
+        <v>107278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06977265890147731</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05527042331462934</v>
+        <v>0.05704387390952916</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08547482333117389</v>
+        <v>0.08559979558271545</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>567081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>552614</v>
+        <v>553507</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>579696</v>
+        <v>578971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9220419478250997</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8985195666533561</v>
+        <v>0.8999715717037312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.942554537331473</v>
+        <v>0.9413750695631522</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>583</v>
@@ -2138,19 +2138,19 @@
         <v>598723</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>583276</v>
+        <v>584445</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>609736</v>
+        <v>610453</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9381152880229715</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9139123499981225</v>
+        <v>0.9157438656052143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9553705249808025</v>
+        <v>0.956494997990601</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1133</v>
@@ -2159,19 +2159,19 @@
         <v>1165804</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1146125</v>
+        <v>1145968</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1183979</v>
+        <v>1181756</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9302273410985227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9145251766688262</v>
+        <v>0.9144002044172845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9447295766853706</v>
+        <v>0.9429561260904709</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>61552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47754</v>
+        <v>47627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78299</v>
+        <v>79452</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08286721640778169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06429112298944195</v>
+        <v>0.06412055186365402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1054137088554708</v>
+        <v>0.1069656777705565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -2284,19 +2284,19 @@
         <v>70088</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55744</v>
+        <v>53925</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88426</v>
+        <v>88747</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08945409815757863</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07114680982970908</v>
+        <v>0.0688245207839893</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1128588765860818</v>
+        <v>0.1132689490645193</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -2305,19 +2305,19 @@
         <v>131640</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112876</v>
+        <v>109394</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>155631</v>
+        <v>153626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08624855383458217</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07395487586687921</v>
+        <v>0.07167351011144868</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1019670108396895</v>
+        <v>0.1006532031499904</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>681225</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>664478</v>
+        <v>663325</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>695023</v>
+        <v>695150</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9171327835922183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8945862911445295</v>
+        <v>0.8930343222294435</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9357088770105585</v>
+        <v>0.935879448136346</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>680</v>
@@ -2355,19 +2355,19 @@
         <v>713423</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>695085</v>
+        <v>694764</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>727767</v>
+        <v>729586</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9105459018424213</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.887141123413918</v>
+        <v>0.8867310509354808</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9288531901702909</v>
+        <v>0.9311754792160106</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1353</v>
@@ -2376,19 +2376,19 @@
         <v>1394648</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1370657</v>
+        <v>1372662</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1413412</v>
+        <v>1416894</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9137514461654178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8980329891603105</v>
+        <v>0.8993467968500097</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9260451241331208</v>
+        <v>0.9283264898885513</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>226720</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06921624668597008</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>207</v>
@@ -2501,19 +2501,19 @@
         <v>217084</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06424134627277592</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>434</v>
@@ -2522,19 +2522,19 @@
         <v>443804</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06669004515213445</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3048805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3018298</v>
+        <v>3020497</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3076545</v>
+        <v>3075576</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.93078375331403</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9214698530830682</v>
+        <v>0.9221412290124297</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9392525700374147</v>
+        <v>0.9389567576420765</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3090</v>
@@ -2572,19 +2572,19 @@
         <v>3162113</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3130748</v>
+        <v>3133755</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3189235</v>
+        <v>3190128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9357586537272241</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9264769783702799</v>
+        <v>0.9273666588763551</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9437849488559492</v>
+        <v>0.9440492064422503</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6076</v>
@@ -2593,19 +2593,19 @@
         <v>6210918</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6167911</v>
+        <v>6165606</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6250209</v>
+        <v>6247408</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9333099548478655</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9268473248010535</v>
+        <v>0.9265009349034311</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9392141201451247</v>
+        <v>0.9387932686848125</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>36312</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26480</v>
+        <v>25251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49415</v>
+        <v>48019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1251245919573515</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09124517419553742</v>
+        <v>0.08701025491083547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1702776092545122</v>
+        <v>0.1654661318813876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -2962,19 +2962,19 @@
         <v>32069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22476</v>
+        <v>21659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45435</v>
+        <v>43536</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.114392942545982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08017350464951145</v>
+        <v>0.07725776294181615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1620703851080886</v>
+        <v>0.155296379957073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -2983,19 +2983,19 @@
         <v>68381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52291</v>
+        <v>53592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85546</v>
+        <v>86358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1198515016149036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09165141919349849</v>
+        <v>0.09393134962278903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1499367077305437</v>
+        <v>0.1513607234320227</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>253891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240788</v>
+        <v>242184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263723</v>
+        <v>264952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8748754080426485</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8297223907454877</v>
+        <v>0.8345338681186122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9087548258044625</v>
+        <v>0.9129897450891644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -3033,19 +3033,19 @@
         <v>248274</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234908</v>
+        <v>236807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257867</v>
+        <v>258684</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.885607057454018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8379296148919109</v>
+        <v>0.8447036200429271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9198264953504883</v>
+        <v>0.9227422370581838</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>463</v>
@@ -3054,19 +3054,19 @@
         <v>502165</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485000</v>
+        <v>484188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518255</v>
+        <v>516954</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8801484983850963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8500632922694568</v>
+        <v>0.8486392765679774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9083485808065016</v>
+        <v>0.906068650377211</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>64980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49380</v>
+        <v>51111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82113</v>
+        <v>81560</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1285398818964015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09767971457471687</v>
+        <v>0.1011042663183886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.162430476626596</v>
+        <v>0.1613367660594179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3179,19 +3179,19 @@
         <v>44311</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33320</v>
+        <v>31335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58910</v>
+        <v>56911</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08476886603153504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06374223912470753</v>
+        <v>0.05994490221983066</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1126959866298735</v>
+        <v>0.1088720365161503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -3200,19 +3200,19 @@
         <v>109292</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89899</v>
+        <v>87538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132838</v>
+        <v>129653</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.106288213140939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08742859381567591</v>
+        <v>0.08513228665869707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1291878211761248</v>
+        <v>0.1260897819210987</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>440547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>423414</v>
+        <v>423967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456147</v>
+        <v>454416</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8714601181035985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.837569523373404</v>
+        <v>0.8386632339405821</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9023202854252831</v>
+        <v>0.8988957336816114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -3250,19 +3250,19 @@
         <v>478420</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463821</v>
+        <v>465820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489411</v>
+        <v>491396</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.915231133968465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8873040133701268</v>
+        <v>0.8911279634838497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9362577608752926</v>
+        <v>0.9400550977801694</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>850</v>
@@ -3271,19 +3271,19 @@
         <v>918966</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>895420</v>
+        <v>898605</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>938359</v>
+        <v>940720</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8937117868590611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8708121788238753</v>
+        <v>0.8739102180789012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9125714061843242</v>
+        <v>0.914867713341303</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>35384</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25663</v>
+        <v>25741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49239</v>
+        <v>49023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1095094567569373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07942279879727179</v>
+        <v>0.07966440786616312</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1523886139106623</v>
+        <v>0.151719788861204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3396,19 +3396,19 @@
         <v>36171</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26028</v>
+        <v>24942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48725</v>
+        <v>49694</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1060680668598536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07632385511742967</v>
+        <v>0.0731407814315871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1428793475683411</v>
+        <v>0.145722590797165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -3417,19 +3417,19 @@
         <v>71556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55550</v>
+        <v>57455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89642</v>
+        <v>89717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1077423750198002</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08364220326534204</v>
+        <v>0.08651057775932143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1349755208393122</v>
+        <v>0.1350889136101533</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>287732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273877</v>
+        <v>274093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297453</v>
+        <v>297375</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8904905432430628</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8476113860893376</v>
+        <v>0.848280211138796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9205772012027282</v>
+        <v>0.9203355921338369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -3467,19 +3467,19 @@
         <v>304849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292295</v>
+        <v>291326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314992</v>
+        <v>316078</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8939319331401463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8571206524316582</v>
+        <v>0.8542774092028351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9236761448825703</v>
+        <v>0.9268592185684129</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -3488,19 +3488,19 @@
         <v>592580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>574494</v>
+        <v>574419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608586</v>
+        <v>606681</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8922576249801998</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8650244791606877</v>
+        <v>0.8649110863898467</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.916357796734658</v>
+        <v>0.9134894222406785</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>23386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15155</v>
+        <v>14680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35139</v>
+        <v>34593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06253179343033238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04052464633755412</v>
+        <v>0.03925234986790153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09395902283959352</v>
+        <v>0.0924991412760231</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -3613,19 +3613,19 @@
         <v>37667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27414</v>
+        <v>26263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51597</v>
+        <v>51863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09708561550818384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07065824788630654</v>
+        <v>0.06769347771089046</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1329917809785497</v>
+        <v>0.1336767513172009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -3634,19 +3634,19 @@
         <v>61052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47553</v>
+        <v>47384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77242</v>
+        <v>78357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08012596731238115</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06240909955662785</v>
+        <v>0.06218734559894666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1013733590876239</v>
+        <v>0.1028365908644353</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>350596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338843</v>
+        <v>339389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358827</v>
+        <v>359302</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9374682065696677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9060409771604069</v>
+        <v>0.9075008587239768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9594753536624461</v>
+        <v>0.9607476501320982</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -3684,19 +3684,19 @@
         <v>350307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>336377</v>
+        <v>336111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>360560</v>
+        <v>361711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9029143844918162</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8670082190214502</v>
+        <v>0.8663232486827993</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9293417521136934</v>
+        <v>0.9323065222891096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>657</v>
@@ -3705,19 +3705,19 @@
         <v>700904</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>684714</v>
+        <v>683599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>714403</v>
+        <v>714572</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9198740326876188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.898626640912376</v>
+        <v>0.8971634091355647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9375909004433721</v>
+        <v>0.9378126544010533</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>25971</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16683</v>
+        <v>17177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38648</v>
+        <v>37700</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1221505891358103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07846393945935907</v>
+        <v>0.0807898438353362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1817738556193305</v>
+        <v>0.177311591766204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3830,19 +3830,19 @@
         <v>21736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14406</v>
+        <v>14092</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32641</v>
+        <v>32337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09898218946799812</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06560431193324319</v>
+        <v>0.06417204310812435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1486443728040138</v>
+        <v>0.1472622886784501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -3851,19 +3851,19 @@
         <v>47707</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34901</v>
+        <v>35474</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62676</v>
+        <v>63305</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1103794978626604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08074921456543373</v>
+        <v>0.08207718606728535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1450121881332688</v>
+        <v>0.1464685174201021</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>186647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173970</v>
+        <v>174918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195935</v>
+        <v>195441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8778494108641897</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8182261443806697</v>
+        <v>0.8226884082337961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.921536060540641</v>
+        <v>0.9192101561646643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -3901,19 +3901,19 @@
         <v>197855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186950</v>
+        <v>187254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205185</v>
+        <v>205499</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9010178105320019</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8513556271959862</v>
+        <v>0.8527377113215499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9343956880667568</v>
+        <v>0.9358279568918757</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>365</v>
@@ -3922,19 +3922,19 @@
         <v>384502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>369533</v>
+        <v>368904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397308</v>
+        <v>396735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8896205021373396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8549878118667309</v>
+        <v>0.853531482579898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9192507854345662</v>
+        <v>0.9179228139327147</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>40811</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30016</v>
+        <v>29539</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53903</v>
+        <v>53957</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1489546629050899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1095537819491385</v>
+        <v>0.1078155469425208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1967413030603795</v>
+        <v>0.1969363170964821</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -4047,19 +4047,19 @@
         <v>28811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20100</v>
+        <v>20030</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41023</v>
+        <v>39997</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.103213857200587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07200530508687687</v>
+        <v>0.07175537582381557</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1469636575997557</v>
+        <v>0.1432870530926446</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -4068,19 +4068,19 @@
         <v>69622</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55551</v>
+        <v>54884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88207</v>
+        <v>87937</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.125870930751913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1004313763466556</v>
+        <v>0.09922586434024369</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1594717047114506</v>
+        <v>0.1589836859467674</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>233170</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220078</v>
+        <v>220024</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243965</v>
+        <v>244442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.85104533709491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8032586969396212</v>
+        <v>0.8030636829035177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8904462180508614</v>
+        <v>0.8921844530574791</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -4118,19 +4118,19 @@
         <v>250329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238117</v>
+        <v>239143</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259040</v>
+        <v>259110</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8967861427994129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8530363424002444</v>
+        <v>0.8567129469073553</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9279946949131233</v>
+        <v>0.9282446241761845</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>463</v>
@@ -4139,19 +4139,19 @@
         <v>483499</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464914</v>
+        <v>465184</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497570</v>
+        <v>498237</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.874129069248087</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8405282952885492</v>
+        <v>0.8410163140532326</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8995686236533442</v>
+        <v>0.9007741356597563</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>56795</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43009</v>
+        <v>41974</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74722</v>
+        <v>73802</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08569161983596991</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06489077291346015</v>
+        <v>0.06332986650443675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1127382738756256</v>
+        <v>0.1113502736501078</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -4264,19 +4264,19 @@
         <v>42302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30539</v>
+        <v>30546</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57062</v>
+        <v>56281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06096620592196885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04401423650375996</v>
+        <v>0.04402434450609246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08223951364540552</v>
+        <v>0.08111358238912211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -4285,19 +4285,19 @@
         <v>99097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79852</v>
+        <v>80770</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>120326</v>
+        <v>120735</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07304582646066249</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05885987845053283</v>
+        <v>0.0595368443086489</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08869409579718882</v>
+        <v>0.08899568283549729</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>605993</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>588066</v>
+        <v>588986</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>619779</v>
+        <v>620814</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.91430838016403</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8872617261243746</v>
+        <v>0.8886497263498923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.93510922708654</v>
+        <v>0.9366701334955633</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>597</v>
@@ -4335,19 +4335,19 @@
         <v>651551</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>636791</v>
+        <v>637572</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>663314</v>
+        <v>663307</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9390337940780311</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9177604863545944</v>
+        <v>0.9188864176108779</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9559857634962399</v>
+        <v>0.9559756554939075</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1165</v>
@@ -4356,19 +4356,19 @@
         <v>1257544</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1236315</v>
+        <v>1235906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1276789</v>
+        <v>1275871</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9269541735393375</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9113059042028113</v>
+        <v>0.9110043171645027</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9411401215494678</v>
+        <v>0.9404631556913511</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>39347</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27361</v>
+        <v>26716</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54165</v>
+        <v>53490</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05064197098803009</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03521456442826561</v>
+        <v>0.03438431312473767</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06971252242482164</v>
+        <v>0.06884419358861357</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -4481,19 +4481,19 @@
         <v>51891</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39259</v>
+        <v>38381</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67224</v>
+        <v>67337</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06325159230141</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04785362227245942</v>
+        <v>0.046783541181639</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08194118789920062</v>
+        <v>0.08207918173143045</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -4502,19 +4502,19 @@
         <v>91239</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73291</v>
+        <v>72250</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113674</v>
+        <v>111969</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05711817293274589</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04588220294378415</v>
+        <v>0.0452305264845283</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07116306157296781</v>
+        <v>0.07009612772457877</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>737625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>722807</v>
+        <v>723482</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>749611</v>
+        <v>750256</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9493580290119699</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9302874775751783</v>
+        <v>0.9311558064113865</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9647854355717342</v>
+        <v>0.9656156868752626</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>704</v>
@@ -4552,19 +4552,19 @@
         <v>768504</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>753171</v>
+        <v>753058</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>781136</v>
+        <v>782014</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.93674840769859</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9180588121007994</v>
+        <v>0.9179208182685696</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.952146377727541</v>
+        <v>0.9532164588183611</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1385</v>
@@ -4573,19 +4573,19 @@
         <v>1506128</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1483693</v>
+        <v>1485398</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1524076</v>
+        <v>1525117</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9428818270672541</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9288369384270322</v>
+        <v>0.9299038722754213</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9541177970562158</v>
+        <v>0.9547694735154716</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>322987</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>288862</v>
+        <v>286982</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>359504</v>
+        <v>360008</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09446306809818086</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08448269044802401</v>
+        <v>0.08393275536988104</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1051432020606656</v>
+        <v>0.1052904342882797</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>280</v>
@@ -4698,19 +4698,19 @@
         <v>294958</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>263156</v>
+        <v>262828</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>329917</v>
+        <v>328893</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08320290302103703</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07423189396102153</v>
+        <v>0.07413946967333503</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09306411132640596</v>
+        <v>0.09277523685175509</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>574</v>
@@ -4719,19 +4719,19 @@
         <v>617945</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>570660</v>
+        <v>573028</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>674670</v>
+        <v>669626</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0887312371927516</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08194149582237116</v>
+        <v>0.08228158885690666</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09687644174726529</v>
+        <v>0.09615215937684209</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3096201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3059684</v>
+        <v>3059180</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3130326</v>
+        <v>3132206</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9055369319018192</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8948567979393344</v>
+        <v>0.8947095657117201</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9155173095519754</v>
+        <v>0.9160672446301187</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3006</v>
@@ -4769,19 +4769,19 @@
         <v>3250089</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3215130</v>
+        <v>3216154</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3281891</v>
+        <v>3282219</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9167970969789629</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9069358886735939</v>
+        <v>0.9072247631482447</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9257681060389784</v>
+        <v>0.925860530326665</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5914</v>
@@ -4790,19 +4790,19 @@
         <v>6346290</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6289565</v>
+        <v>6294609</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6393575</v>
+        <v>6391207</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9112687628072484</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9031235582527345</v>
+        <v>0.9038478406231587</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9180585041776286</v>
+        <v>0.9177184111430934</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>32008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21802</v>
+        <v>22353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43208</v>
+        <v>45876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1089606112739827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07421600131984478</v>
+        <v>0.07609290403358529</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1470846451393759</v>
+        <v>0.1561686861973594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -5159,19 +5159,19 @@
         <v>25495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17296</v>
+        <v>17750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35389</v>
+        <v>35960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08831014738322937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05990809007441864</v>
+        <v>0.06148104749076089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1225792762477337</v>
+        <v>0.1245570339650116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -5180,19 +5180,19 @@
         <v>57504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44373</v>
+        <v>43914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72759</v>
+        <v>71887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09872504157927799</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07618131679002742</v>
+        <v>0.07539428893607045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1249156240664537</v>
+        <v>0.1234195116858759</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>261753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250553</v>
+        <v>247885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271959</v>
+        <v>271408</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8910393887260173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.852915354860624</v>
+        <v>0.8438313138026406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9257839986801552</v>
+        <v>0.9239070959664146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -5230,19 +5230,19 @@
         <v>263208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253314</v>
+        <v>252743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271407</v>
+        <v>270953</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9116898526167706</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8774207237522662</v>
+        <v>0.8754429660349885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9400919099255813</v>
+        <v>0.9385189525092391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>487</v>
@@ -5251,19 +5251,19 @@
         <v>524960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509705</v>
+        <v>510577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>538091</v>
+        <v>538550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.901274958420722</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8750843759335465</v>
+        <v>0.8765804883141241</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9238186832099726</v>
+        <v>0.9246057110639296</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>36642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25538</v>
+        <v>26307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49456</v>
+        <v>49300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07290807941953566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05081470978495406</v>
+        <v>0.0523446227819877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09840455293918181</v>
+        <v>0.09809467208659839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -5376,19 +5376,19 @@
         <v>39663</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28876</v>
+        <v>27598</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53521</v>
+        <v>54034</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07582509407643505</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05520384047612328</v>
+        <v>0.05276032745998892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1023187966371808</v>
+        <v>0.1032993674292762</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -5397,19 +5397,19 @@
         <v>76305</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59885</v>
+        <v>60221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93014</v>
+        <v>96524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07439575042611461</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05838660490922958</v>
+        <v>0.05871420429047702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09068742497526425</v>
+        <v>0.09410916757013911</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>465933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453119</v>
+        <v>453275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>477037</v>
+        <v>476268</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9270919205804643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9015954470608182</v>
+        <v>0.9019053279134014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9491852902150455</v>
+        <v>0.9476553772180123</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -5447,19 +5447,19 @@
         <v>483421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>469563</v>
+        <v>469050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494208</v>
+        <v>495486</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.924174905923565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8976812033628194</v>
+        <v>0.8967006325707237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9447961595238769</v>
+        <v>0.9472396725400111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>889</v>
@@ -5468,19 +5468,19 @@
         <v>949354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>932645</v>
+        <v>929135</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>965774</v>
+        <v>965438</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9256042495738854</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9093125750247357</v>
+        <v>0.9058908324298609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9416133950907705</v>
+        <v>0.9412857957095225</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>18962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12466</v>
+        <v>11357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28754</v>
+        <v>27678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05952301394550421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03913285012331509</v>
+        <v>0.03565068686012724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09025986205154557</v>
+        <v>0.08688265355545144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5593,19 +5593,19 @@
         <v>25999</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16551</v>
+        <v>17045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38002</v>
+        <v>38363</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07730744714402106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04921343985821308</v>
+        <v>0.05068380922730632</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1129984157990451</v>
+        <v>0.1140702189280678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -5614,19 +5614,19 @@
         <v>44961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33779</v>
+        <v>33189</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61274</v>
+        <v>60303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06865616777925961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05158109180095111</v>
+        <v>0.05068029559183365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09356539231154631</v>
+        <v>0.09208286200046568</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>299603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289811</v>
+        <v>290887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306099</v>
+        <v>307208</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9404769860544958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9097401379484543</v>
+        <v>0.9131173464445485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9608671498766849</v>
+        <v>0.9643493131398726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>308</v>
@@ -5664,19 +5664,19 @@
         <v>310310</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>298307</v>
+        <v>297946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319758</v>
+        <v>319264</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.922692552855979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8870015842009548</v>
+        <v>0.885929781071932</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9507865601417869</v>
+        <v>0.9493161907726937</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>623</v>
@@ -5685,19 +5685,19 @@
         <v>609913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>593600</v>
+        <v>594571</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621095</v>
+        <v>621685</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9313438322207404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9064346076884536</v>
+        <v>0.9079171379995343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9484189081990489</v>
+        <v>0.9493197044081666</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>32488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23266</v>
+        <v>23626</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44267</v>
+        <v>46378</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0878150249724384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06288765047127882</v>
+        <v>0.06385897022042253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1196519944484456</v>
+        <v>0.1253592975301876</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5810,19 +5810,19 @@
         <v>26757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18580</v>
+        <v>17994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39646</v>
+        <v>37967</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06908839622271369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04797503040614431</v>
+        <v>0.04646210043287338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1023689514353029</v>
+        <v>0.09803502961262775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5831,19 +5831,19 @@
         <v>59245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45929</v>
+        <v>44961</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74858</v>
+        <v>74506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07823756215348916</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06065206603799646</v>
+        <v>0.05937470174469171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09885600693394496</v>
+        <v>0.09839059907982517</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>337476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325697</v>
+        <v>323586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346698</v>
+        <v>346338</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9121849750275616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8803480055515538</v>
+        <v>0.8746407024698127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9371123495287208</v>
+        <v>0.9361410297795775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -5881,19 +5881,19 @@
         <v>360526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347637</v>
+        <v>349316</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368703</v>
+        <v>369289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9309116037772863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8976310485646971</v>
+        <v>0.9019649703873722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9520249695938557</v>
+        <v>0.9535378995671268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>654</v>
@@ -5902,19 +5902,19 @@
         <v>698002</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>682389</v>
+        <v>682741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>711318</v>
+        <v>712286</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9217624378465108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9011439930660551</v>
+        <v>0.9016094009201748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9393479339620036</v>
+        <v>0.9406252982553083</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>13984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8687</v>
+        <v>8201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23186</v>
+        <v>22138</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06620416049517597</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04112915334605536</v>
+        <v>0.03882742446368675</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1097692984612527</v>
+        <v>0.1048090187630456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -6027,19 +6027,19 @@
         <v>17457</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10461</v>
+        <v>10371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26034</v>
+        <v>26105</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07986107428237581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04785571522426935</v>
+        <v>0.04744778925112053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1191021941302879</v>
+        <v>0.119424091907217</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -6048,19 +6048,19 @@
         <v>31440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22336</v>
+        <v>22822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44183</v>
+        <v>45347</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07314964272467447</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05196698133166395</v>
+        <v>0.05309714789979419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.102797094656277</v>
+        <v>0.105505769047916</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>197237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188035</v>
+        <v>189083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202534</v>
+        <v>203020</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.933795839504824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8902307015387472</v>
+        <v>0.8951909812369544</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9588708466539446</v>
+        <v>0.9611725755363133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -6098,19 +6098,19 @@
         <v>201130</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192553</v>
+        <v>192482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208126</v>
+        <v>208216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9201389257176242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8808978058697121</v>
+        <v>0.880575908092783</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9521442847757308</v>
+        <v>0.9525522107488794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -6119,19 +6119,19 @@
         <v>398368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385625</v>
+        <v>384461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407472</v>
+        <v>406986</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9268503572753255</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.897202905343723</v>
+        <v>0.894494230952084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.948033018668336</v>
+        <v>0.9469028521002056</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>18423</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10905</v>
+        <v>11157</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28045</v>
+        <v>29462</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07001518223396594</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04144330607598429</v>
+        <v>0.04240259895043098</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1065857802364952</v>
+        <v>0.1119701118621707</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -6244,19 +6244,19 @@
         <v>25020</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16592</v>
+        <v>15794</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35495</v>
+        <v>35196</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09161119210137555</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06075007370004563</v>
+        <v>0.05782912172918337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1299646001129905</v>
+        <v>0.1288701515689442</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -6265,19 +6265,19 @@
         <v>43443</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31490</v>
+        <v>32166</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57754</v>
+        <v>57045</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0810143920038085</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0587248554526375</v>
+        <v>0.05998392264597008</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1077026976353302</v>
+        <v>0.1063803454175295</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>244700</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235078</v>
+        <v>233661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252218</v>
+        <v>251966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.929984817766034</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8934142197635048</v>
+        <v>0.8880298881378301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9585566939240157</v>
+        <v>0.957597401049569</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -6315,19 +6315,19 @@
         <v>248095</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237620</v>
+        <v>237919</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256523</v>
+        <v>257321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9083888078986244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8700353998870096</v>
+        <v>0.8711298484310558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9392499262999543</v>
+        <v>0.9421708782708165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>480</v>
@@ -6336,19 +6336,19 @@
         <v>492795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>478484</v>
+        <v>479193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>504748</v>
+        <v>504072</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9189856079961914</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8922973023646702</v>
+        <v>0.8936196545824706</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9412751445473633</v>
+        <v>0.94001607735403</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>54364</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42022</v>
+        <v>40441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71144</v>
+        <v>71666</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08280161142339908</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0640039251730726</v>
+        <v>0.06159581343580023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1083596784136645</v>
+        <v>0.1091546949639885</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -6461,19 +6461,19 @@
         <v>53522</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40318</v>
+        <v>40790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68577</v>
+        <v>69961</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07742265680030852</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05832301202102651</v>
+        <v>0.05900476411837637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0992006405856358</v>
+        <v>0.1012022663409872</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -6482,19 +6482,19 @@
         <v>107886</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88447</v>
+        <v>89062</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129071</v>
+        <v>130218</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08004282257527201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06562101109046671</v>
+        <v>0.06607669194055525</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09576039100722583</v>
+        <v>0.0966116034005215</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>602194</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>585414</v>
+        <v>584892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>614536</v>
+        <v>616117</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.917198388576601</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8916403215863354</v>
+        <v>0.8908453050360114</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9359960748269275</v>
+        <v>0.9384041865641998</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>595</v>
@@ -6532,19 +6532,19 @@
         <v>637772</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>622717</v>
+        <v>621333</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>650976</v>
+        <v>650504</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9225773431996915</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9007993594143645</v>
+        <v>0.8987977336590131</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9416769879789736</v>
+        <v>0.9409952358816243</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1127</v>
@@ -6553,19 +6553,19 @@
         <v>1239966</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1218781</v>
+        <v>1217634</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1259405</v>
+        <v>1258790</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.919957177424728</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9042396089927742</v>
+        <v>0.9033883965994786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9343789889095333</v>
+        <v>0.9339233080594448</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>54262</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40272</v>
+        <v>41277</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70202</v>
+        <v>72031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06969337658648617</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05172520797538156</v>
+        <v>0.05301490303031351</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09016644258161638</v>
+        <v>0.09251584200174255</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -6678,19 +6678,19 @@
         <v>81365</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65011</v>
+        <v>64317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99590</v>
+        <v>102241</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09848531500561614</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.078690411962885</v>
+        <v>0.07785001903763962</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.120544426151958</v>
+        <v>0.1237538497283828</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>124</v>
@@ -6699,19 +6699,19 @@
         <v>135627</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113052</v>
+        <v>114119</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159671</v>
+        <v>159526</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08451621470039336</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07044836983542377</v>
+        <v>0.07111354809228276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09949889954066031</v>
+        <v>0.09940866409079382</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>724321</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>708381</v>
+        <v>706552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>738311</v>
+        <v>737306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9303066234135138</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9098335574183835</v>
+        <v>0.9074841579982573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9482747920246184</v>
+        <v>0.9469850969696865</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>685</v>
@@ -6749,19 +6749,19 @@
         <v>744802</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>726577</v>
+        <v>723926</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>761156</v>
+        <v>761850</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9015146849943839</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8794555738480418</v>
+        <v>0.8762461502716172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9213095880371149</v>
+        <v>0.9221499809623603</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1381</v>
@@ -6770,19 +6770,19 @@
         <v>1469123</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1445079</v>
+        <v>1445224</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1491698</v>
+        <v>1490631</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9154837852996066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9005011004593398</v>
+        <v>0.9005913359092064</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9295516301645762</v>
+        <v>0.9288864519077173</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>261133</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>231261</v>
+        <v>230493</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>294887</v>
+        <v>293884</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07693165230526061</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06813111606989163</v>
+        <v>0.0679048757806479</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08687590321632312</v>
+        <v>0.08658024393870124</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>276</v>
@@ -6895,19 +6895,19 @@
         <v>295278</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>264802</v>
+        <v>263890</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>331049</v>
+        <v>332884</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08330508377987707</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07470695684611359</v>
+        <v>0.07444970132488976</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09339693749472888</v>
+        <v>0.09391440770746225</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>525</v>
@@ -6916,19 +6916,19 @@
         <v>556411</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>512625</v>
+        <v>514163</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>607528</v>
+        <v>604401</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08018734419751215</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07387702151471137</v>
+        <v>0.07409874253600693</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08755408962427647</v>
+        <v>0.08710336339773458</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3133217</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3099463</v>
+        <v>3100466</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3163089</v>
+        <v>3163857</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9230683476947393</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.913124096783677</v>
+        <v>0.9134197560612985</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9318688839301086</v>
+        <v>0.9320951242193519</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3062</v>
@@ -6966,19 +6966,19 @@
         <v>3249264</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3213493</v>
+        <v>3211658</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3279740</v>
+        <v>3280652</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9166949162201229</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9066030625052711</v>
+        <v>0.9060855922925379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9252930431538865</v>
+        <v>0.9255502986751104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6044</v>
@@ -6987,19 +6987,19 @@
         <v>6382481</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6331364</v>
+        <v>6334491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6426267</v>
+        <v>6424729</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9198126558024878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9124459103757235</v>
+        <v>0.9128966366022654</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9261229784852887</v>
+        <v>0.9259012574639931</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>23828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15992</v>
+        <v>14823</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34782</v>
+        <v>33968</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07473328797464826</v>
+        <v>0.07473328797464827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05015617149607055</v>
+        <v>0.04649055952581034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1090880944362142</v>
+        <v>0.1065330393295867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -7356,19 +7356,19 @@
         <v>20857</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14710</v>
+        <v>14602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29507</v>
+        <v>28734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06599193640275647</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04654146204608109</v>
+        <v>0.04620042982394276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09335755579396279</v>
+        <v>0.09091253231282279</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -7377,19 +7377,19 @@
         <v>44686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33830</v>
+        <v>32977</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57499</v>
+        <v>57634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07038178156472963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05328331836080463</v>
+        <v>0.05193930713658796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09056267548334646</v>
+        <v>0.09077538190433058</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>295017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284063</v>
+        <v>284877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>302853</v>
+        <v>304022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9252667120253517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8909119055637856</v>
+        <v>0.8934669606704133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9498438285039293</v>
+        <v>0.9535094404741898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>503</v>
@@ -7427,19 +7427,19 @@
         <v>295204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286554</v>
+        <v>287327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301351</v>
+        <v>301459</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9340080635972435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9066424442060377</v>
+        <v>0.9090874676871774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9534585379539191</v>
+        <v>0.9537995701760572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>810</v>
@@ -7448,19 +7448,19 @@
         <v>590220</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>577407</v>
+        <v>577272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>601076</v>
+        <v>601929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9296182184352705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9094373245166533</v>
+        <v>0.9092246180956691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9467166816391953</v>
+        <v>0.948060692863412</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>18891</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11078</v>
+        <v>10698</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34130</v>
+        <v>32209</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03566588791975765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02091598792870365</v>
+        <v>0.02019798473090312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06443767566212712</v>
+        <v>0.06081091833671091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -7573,19 +7573,19 @@
         <v>34835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25841</v>
+        <v>24629</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48682</v>
+        <v>47404</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06398219689051585</v>
+        <v>0.06398219689051583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04746272111814113</v>
+        <v>0.04523715795597138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08941575113562768</v>
+        <v>0.08706719425553615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -7594,19 +7594,19 @@
         <v>53726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40924</v>
+        <v>40169</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72785</v>
+        <v>71725</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05001897610437987</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03810007670964441</v>
+        <v>0.03739767568471901</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06776295958990747</v>
+        <v>0.06677634054819606</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>510769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495530</v>
+        <v>497451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>518582</v>
+        <v>518962</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9643341120802423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9355623243378731</v>
+        <v>0.9391890816632893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9790840120712965</v>
+        <v>0.9798020152690968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>672</v>
@@ -7644,19 +7644,19 @@
         <v>509613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495766</v>
+        <v>497044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>518607</v>
+        <v>519819</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9360178031094842</v>
+        <v>0.936017803109484</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9105842488643725</v>
+        <v>0.9129328057444639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9525372788818587</v>
+        <v>0.9547628420440286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1039</v>
@@ -7665,19 +7665,19 @@
         <v>1020382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1001323</v>
+        <v>1002383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1033184</v>
+        <v>1033939</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9499810238956202</v>
+        <v>0.9499810238956201</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9322370404100928</v>
+        <v>0.9332236594518046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9618999232903557</v>
+        <v>0.9626023243152813</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>24291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16327</v>
+        <v>15991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34702</v>
+        <v>34829</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07687122460876776</v>
+        <v>0.07687122460876775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05166833475424637</v>
+        <v>0.05060477091709917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1098188596578572</v>
+        <v>0.110220448139833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -7790,19 +7790,19 @@
         <v>34678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26997</v>
+        <v>26703</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45715</v>
+        <v>45294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09730722763765166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07575219315615987</v>
+        <v>0.07492945649646354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1282755826559266</v>
+        <v>0.1270949797945739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -7811,19 +7811,19 @@
         <v>58969</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47879</v>
+        <v>47467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73517</v>
+        <v>72687</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08770299654470028</v>
+        <v>0.08770299654470026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07120897831378389</v>
+        <v>0.07059530858402478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1093396572022193</v>
+        <v>0.108105577850733</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>291702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>281291</v>
+        <v>281164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299666</v>
+        <v>300002</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9231287753912322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8901811403421432</v>
+        <v>0.889779551860167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9483316652457539</v>
+        <v>0.9493952290829007</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>483</v>
@@ -7861,19 +7861,19 @@
         <v>321703</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>310666</v>
+        <v>311087</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329384</v>
+        <v>329678</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9026927723623484</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8717244173440735</v>
+        <v>0.8729050202054258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9242478068438401</v>
+        <v>0.9250705435035363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>816</v>
@@ -7882,19 +7882,19 @@
         <v>613406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>598858</v>
+        <v>599688</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624496</v>
+        <v>624908</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9122970034552998</v>
+        <v>0.9122970034552997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8906603427977806</v>
+        <v>0.891894422149267</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9287910216862162</v>
+        <v>0.9294046914159751</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>30218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18003</v>
+        <v>17887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47318</v>
+        <v>49192</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0809808489481221</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04824652211082846</v>
+        <v>0.04793534098769178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1268093436610527</v>
+        <v>0.1318319014230186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -8007,19 +8007,19 @@
         <v>30184</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21988</v>
+        <v>21576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44308</v>
+        <v>45615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07158945700009671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05214993344197327</v>
+        <v>0.05117233326182329</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1050878338282251</v>
+        <v>0.1081875693994384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -8028,19 +8028,19 @@
         <v>60402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44096</v>
+        <v>46670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80536</v>
+        <v>81540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07599869388766757</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05548276455517751</v>
+        <v>0.05872084747291336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1013317671862969</v>
+        <v>0.1025953386570729</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>342927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325827</v>
+        <v>323953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355142</v>
+        <v>355258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9190191510518779</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8731906563389473</v>
+        <v>0.8681680985769826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9517534778891715</v>
+        <v>0.9520646590123084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>554</v>
@@ -8078,19 +8078,19 @@
         <v>391446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377322</v>
+        <v>376015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>399642</v>
+        <v>400054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9284105429999033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8949121661717745</v>
+        <v>0.8918124306005616</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9478500665580264</v>
+        <v>0.9488276667381768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>827</v>
@@ -8099,19 +8099,19 @@
         <v>734373</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714239</v>
+        <v>713235</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750679</v>
+        <v>748105</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9240013061123323</v>
+        <v>0.9240013061123324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8986682328137031</v>
+        <v>0.897404661342927</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9445172354448225</v>
+        <v>0.9412791525270865</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>14304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9062</v>
+        <v>8942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20863</v>
+        <v>20801</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06955215875826594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04406029038042704</v>
+        <v>0.04347704064087203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1014416485988975</v>
+        <v>0.1011414824818989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -8224,19 +8224,19 @@
         <v>25240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19250</v>
+        <v>18878</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33452</v>
+        <v>34325</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1110826000700531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0847212704572211</v>
+        <v>0.08308373313322608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1472276553252594</v>
+        <v>0.1510691498525818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -8245,19 +8245,19 @@
         <v>39544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30650</v>
+        <v>31158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49726</v>
+        <v>50872</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09135113153435573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07080429395229867</v>
+        <v>0.07197876161090087</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.114871821100065</v>
+        <v>0.1175193050694505</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>191361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184802</v>
+        <v>184864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196603</v>
+        <v>196723</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.930447841241734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8985583514011025</v>
+        <v>0.8988585175181011</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9559397096195726</v>
+        <v>0.9565229593591281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>440</v>
@@ -8295,19 +8295,19 @@
         <v>201975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193763</v>
+        <v>192890</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207965</v>
+        <v>208337</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.888917399929947</v>
+        <v>0.8889173999299468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8527723446747407</v>
+        <v>0.8489308501474182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.915278729542779</v>
+        <v>0.9169162668667741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>698</v>
@@ -8316,19 +8316,19 @@
         <v>393335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383153</v>
+        <v>382007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402229</v>
+        <v>401721</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9086488684656444</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8851281788999351</v>
+        <v>0.8824806949305493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9291957060477014</v>
+        <v>0.928021238389099</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>21919</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14526</v>
+        <v>13979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30946</v>
+        <v>31079</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08096909415212228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05366124488385795</v>
+        <v>0.05163764295874413</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1143156485892737</v>
+        <v>0.1148082365091278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -8441,19 +8441,19 @@
         <v>19669</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13241</v>
+        <v>13805</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26862</v>
+        <v>27074</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07457629504660426</v>
+        <v>0.07457629504660424</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05020202418343855</v>
+        <v>0.05233966538050473</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1018464861650864</v>
+        <v>0.1026500886149469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -8462,19 +8462,19 @@
         <v>41588</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31632</v>
+        <v>31784</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53598</v>
+        <v>52661</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07781430008132416</v>
+        <v>0.07781430008132417</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0591850542959087</v>
+        <v>0.05946924382742473</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1002850741681042</v>
+        <v>0.09853165289778051</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>248788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239761</v>
+        <v>239628</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256181</v>
+        <v>256728</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9190309058478777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8856843514107262</v>
+        <v>0.8851917634908723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9463387551161422</v>
+        <v>0.948362357041256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>424</v>
@@ -8512,19 +8512,19 @@
         <v>244081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236888</v>
+        <v>236676</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250509</v>
+        <v>249945</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9254237049533959</v>
+        <v>0.9254237049533957</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8981535138349145</v>
+        <v>0.8973499113850534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9497979758165614</v>
+        <v>0.9476603346194954</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>766</v>
@@ -8533,19 +8533,19 @@
         <v>492869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>480859</v>
+        <v>481796</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>502825</v>
+        <v>502673</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9221856999186758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8997149258318961</v>
+        <v>0.9014683471022195</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9408149457040914</v>
+        <v>0.9405307561725752</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>76935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58988</v>
+        <v>58638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101682</v>
+        <v>100051</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1069012471484085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08196344362188454</v>
+        <v>0.08147732010139763</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1412866942149275</v>
+        <v>0.139020563882155</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -8658,19 +8658,19 @@
         <v>74992</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61533</v>
+        <v>60646</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90718</v>
+        <v>92345</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09713307208269707</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0797003108605106</v>
+        <v>0.07855149864443682</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1175020315259482</v>
+        <v>0.1196091672777931</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -8679,19 +8679,19 @@
         <v>151928</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127033</v>
+        <v>129011</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179795</v>
+        <v>178995</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1018456969865213</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08515751635756232</v>
+        <v>0.08648339230750154</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1205266472392867</v>
+        <v>0.1199906955131629</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>642752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>618005</v>
+        <v>619636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660699</v>
+        <v>661049</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8930987528515916</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8587133057850724</v>
+        <v>0.8609794361178452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9180365563781155</v>
+        <v>0.9185226798986024</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>866</v>
@@ -8729,19 +8729,19 @@
         <v>697065</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>681339</v>
+        <v>679712</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>710524</v>
+        <v>711411</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9028669279173027</v>
+        <v>0.9028669279173029</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8824979684740517</v>
+        <v>0.8803908327222068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9202996891394891</v>
+        <v>0.9214485013555631</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1409</v>
@@ -8750,19 +8750,19 @@
         <v>1339816</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1311949</v>
+        <v>1312749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1364711</v>
+        <v>1362733</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8981543030134785</v>
+        <v>0.8981543030134788</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8794733527607133</v>
+        <v>0.8800093044868371</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9148424836424377</v>
+        <v>0.9135166076924984</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>43283</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30953</v>
+        <v>31020</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57472</v>
+        <v>56559</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05423407593861976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03878479607069376</v>
+        <v>0.03886923533705715</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07201408618549796</v>
+        <v>0.07086990778272943</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -8875,19 +8875,19 @@
         <v>47867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38161</v>
+        <v>37686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61049</v>
+        <v>60533</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05767012872581324</v>
+        <v>0.05767012872581326</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04597687752778883</v>
+        <v>0.04540438489859438</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0735527531386274</v>
+        <v>0.07293114595158766</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -8896,19 +8896,19 @@
         <v>91149</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74770</v>
+        <v>76286</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109349</v>
+        <v>111082</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05598580035019627</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04592529826139529</v>
+        <v>0.04685650696708188</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06716433777931888</v>
+        <v>0.06822899338568836</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>754789</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>740600</v>
+        <v>741513</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767119</v>
+        <v>767052</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9457659240613803</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9279859138145025</v>
+        <v>0.9291300922172702</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9612152039293064</v>
+        <v>0.9611307646629428</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>995</v>
@@ -8946,19 +8946,19 @@
         <v>782139</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>768957</v>
+        <v>769473</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>791845</v>
+        <v>792320</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9423298712741868</v>
+        <v>0.9423298712741869</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9264472468613728</v>
+        <v>0.9270688540484122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9540231224722111</v>
+        <v>0.9545956151014057</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1711</v>
@@ -8967,19 +8967,19 @@
         <v>1536929</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1518729</v>
+        <v>1516996</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1553308</v>
+        <v>1551792</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9440141996498037</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9328356622206811</v>
+        <v>0.9317710066143117</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9540747017386046</v>
+        <v>0.9531434930329182</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>253669</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>219796</v>
+        <v>220752</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>289169</v>
+        <v>291708</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.07182481326029244</v>
+        <v>0.07182481326029246</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06223384258907049</v>
+        <v>0.06250445909584949</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.081876357131572</v>
+        <v>0.0825952856185993</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>421</v>
@@ -9092,19 +9092,19 @@
         <v>288323</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>261237</v>
+        <v>262552</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>322962</v>
+        <v>322347</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07726635649936379</v>
+        <v>0.07726635649936381</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07000756374880836</v>
+        <v>0.070359969608863</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08654911351759706</v>
+        <v>0.08638419991258757</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>657</v>
@@ -9113,19 +9113,19 @@
         <v>541992</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>497582</v>
+        <v>500002</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>589520</v>
+        <v>593080</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07462041817764165</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0685061620694369</v>
+        <v>0.06883927116381014</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08116399358041072</v>
+        <v>0.08165411558834137</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3278106</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3242606</v>
+        <v>3240067</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3311979</v>
+        <v>3311023</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9281751867397076</v>
+        <v>0.9281751867397074</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.918123642868428</v>
+        <v>0.9174047143814007</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9377661574109294</v>
+        <v>0.9374955409041504</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4937</v>
@@ -9163,19 +9163,19 @@
         <v>3443225</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3408586</v>
+        <v>3409201</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3470311</v>
+        <v>3468996</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9227336435006362</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.913450886482403</v>
+        <v>0.9136158000874126</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9299924362511915</v>
+        <v>0.929640030391137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8076</v>
@@ -9184,19 +9184,19 @@
         <v>6721331</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6673803</v>
+        <v>6670243</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6765741</v>
+        <v>6763321</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9253795818223582</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9188360064195892</v>
+        <v>0.9183458844116587</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9314938379305633</v>
+        <v>0.9311607288361898</v>
       </c>
     </row>
     <row r="30">
